--- a/data/MetalliCan/cleaned_data/land_table_mining.xlsx
+++ b/data/MetalliCan/cleaned_data/land_table_mining.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca-my.sharepoint.com/personal/marin_pellan_polymtl_ca/Documents/POST_DOC/CODE/regionalized_lci_mineral/data/MetalliCan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca-my.sharepoint.com/personal/marin_pellan_polymtl_ca/Documents/POST_DOC/CODE/regionalized_lci_mineral/data/MetalliCan/cleaned_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_27C981E737634D2B672D4C9BADEC1EE77878CEAE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94A633E6-B79F-4229-BEB5-22EB75803101}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_27C981E737634D2B672D4C9BADEC1EE77878CEAE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADD070D5-60BE-421D-B31B-44BF2032EB71}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,22 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$78</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -809,6 +822,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1100,11 +1117,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.90625" customWidth="1"/>
+    <col min="8" max="8" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -1137,39 +1165,39 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="B2">
-        <v>1.4996898654099999</v>
+        <v>15.702687604910921</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="F2" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="G2" t="s">
         <v>195</v>
       </c>
       <c r="H2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="B3">
-        <v>7.9678346375599993</v>
+        <v>19.028718451565801</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="F3" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="G3" t="s">
         <v>195</v>
@@ -1178,156 +1206,174 @@
         <v>197</v>
       </c>
       <c r="I3" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B4">
-        <v>0.41673686034155938</v>
+        <v>26.10464881795129</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="F4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G4" t="s">
         <v>195</v>
       </c>
       <c r="H4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I4" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="B5">
-        <v>13.2332103886</v>
+        <v>6.2028970171399997</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="F5" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="G5" t="s">
         <v>195</v>
       </c>
       <c r="H5" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="I5" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="B6">
-        <v>22.527998678500001</v>
+        <v>1.600590119251436</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="F6" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="G6" t="s">
         <v>195</v>
       </c>
       <c r="H6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I6" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B7">
-        <v>11.531646543500001</v>
+        <v>3.0638928050827952</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>143</v>
+      </c>
+      <c r="E7" t="s">
+        <v>178</v>
       </c>
       <c r="F7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="G7" t="s">
         <v>195</v>
       </c>
       <c r="H7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B8">
-        <v>4.9504599149299997</v>
+        <v>0.1108038657774448</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>132</v>
+      </c>
+      <c r="E8" t="s">
+        <v>178</v>
       </c>
       <c r="F8" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="G8" t="s">
         <v>195</v>
       </c>
       <c r="H8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I8" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="B9">
-        <v>63.924259804899997</v>
+        <v>21.5912494628</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>145</v>
+      </c>
+      <c r="E9" t="s">
+        <v>178</v>
       </c>
       <c r="F9" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="G9" t="s">
         <v>195</v>
       </c>
       <c r="H9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I9" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>12.6067864826</v>
+        <v>13.2332103886</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F10" t="s">
         <v>185</v>
@@ -1344,434 +1390,440 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B11">
-        <v>0.33000333380554819</v>
+        <v>1.9299681763706871</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="E11" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F11" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G11" t="s">
         <v>195</v>
       </c>
       <c r="H11" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I11" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B12">
-        <v>1.0581000927489479</v>
+        <v>10.276967100669291</v>
       </c>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="F12" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G12" t="s">
         <v>195</v>
       </c>
       <c r="H12" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I12" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B13">
-        <v>0.36343829697399999</v>
-      </c>
-      <c r="C13" t="s">
-        <v>86</v>
+        <v>9.9929915686563149</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="F13" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G13" t="s">
         <v>195</v>
       </c>
       <c r="H13" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="I13" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B14">
-        <v>2.4106892217360381</v>
+        <v>10.340795840703111</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G14" t="s">
         <v>195</v>
       </c>
       <c r="H14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I14" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B15">
-        <v>7.4819984830510933</v>
+        <v>0.35288457374953452</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="F15" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G15" t="s">
         <v>195</v>
       </c>
       <c r="H15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I15" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B16">
-        <v>4.7890140375600003</v>
+        <v>16.826817561296089</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F16" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G16" t="s">
         <v>195</v>
       </c>
       <c r="H16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I16" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B17">
-        <v>0.16325462437129001</v>
+        <v>1.4454919253398539</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="F17" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="G17" t="s">
         <v>195</v>
       </c>
       <c r="H17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I17" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B18">
-        <v>10.5721885661376</v>
+        <v>0.41673686034155938</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G18" t="s">
         <v>195</v>
       </c>
       <c r="H18" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I18" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="B19">
-        <v>1.5107293693091239</v>
+        <v>3.7143630815900832</v>
+      </c>
+      <c r="C19" t="s">
+        <v>93</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>154</v>
+      </c>
+      <c r="E19" t="s">
+        <v>181</v>
       </c>
       <c r="F19" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="G19" t="s">
         <v>195</v>
       </c>
       <c r="H19" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I19" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B20">
-        <v>26.10464881795129</v>
+        <v>7.4050862285420909</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G20" t="s">
         <v>195</v>
       </c>
       <c r="H20" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="I20" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B21">
-        <v>10.340795840703111</v>
+        <v>1.7609135958396691</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F21" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G21" t="s">
         <v>195</v>
       </c>
       <c r="H21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I21" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B22">
-        <v>4.3548111669965062</v>
+        <v>0.1269627450922684</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F22" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G22" t="s">
         <v>195</v>
       </c>
       <c r="H22" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="I22" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B23">
-        <v>3.0646686931746712</v>
+        <v>2.1618060909095029</v>
+      </c>
+      <c r="C23" t="s">
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>128</v>
+      </c>
+      <c r="E23" t="s">
+        <v>178</v>
       </c>
       <c r="F23" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G23" t="s">
         <v>195</v>
       </c>
       <c r="H23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I23" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B24">
-        <v>9.9929915686563149</v>
+        <v>22.527998678500001</v>
       </c>
       <c r="D24" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="F24" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G24" t="s">
         <v>195</v>
       </c>
       <c r="H24" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="I24" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="B25">
-        <v>16.826817561296089</v>
+        <v>1.34183517078</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="F25" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G25" t="s">
         <v>195</v>
       </c>
       <c r="H25" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I25" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B26">
-        <v>0.1269627450922684</v>
+        <v>3.503071061728495</v>
       </c>
       <c r="D26" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="F26" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G26" t="s">
         <v>195</v>
       </c>
       <c r="H26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I26" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B27">
-        <v>7.6442888516325542</v>
-      </c>
-      <c r="C27" t="s">
-        <v>88</v>
+        <v>63.924259804899997</v>
       </c>
       <c r="D27" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" t="s">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="F27" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G27" t="s">
         <v>195</v>
       </c>
       <c r="H27" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I27" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B28">
-        <v>22.78972343693621</v>
+        <v>1.141145864636208</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>123</v>
+        <v>137</v>
+      </c>
+      <c r="E28" t="s">
+        <v>179</v>
       </c>
       <c r="F28" t="s">
         <v>191</v>
@@ -1780,21 +1832,27 @@
         <v>195</v>
       </c>
       <c r="H28" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I28" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B29">
-        <v>5.8048648944920016</v>
+        <v>15.42802065126922</v>
+      </c>
+      <c r="C29" t="s">
+        <v>91</v>
       </c>
       <c r="D29" t="s">
-        <v>124</v>
+        <v>131</v>
+      </c>
+      <c r="E29" t="s">
+        <v>179</v>
       </c>
       <c r="F29" t="s">
         <v>191</v>
@@ -1803,79 +1861,73 @@
         <v>195</v>
       </c>
       <c r="H29" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I29" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="B30">
-        <v>1.7609135958396691</v>
-      </c>
-      <c r="C30" t="s">
-        <v>89</v>
+        <v>5.2935940218628854</v>
       </c>
       <c r="D30" t="s">
-        <v>125</v>
-      </c>
-      <c r="E30" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F30" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G30" t="s">
         <v>195</v>
       </c>
       <c r="H30" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I30" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="B31">
-        <v>0.55924126414497843</v>
+        <v>10.23564718904726</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D31" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="E31" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F31" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G31" t="s">
         <v>195</v>
       </c>
       <c r="H31" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="I31" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B32">
-        <v>3.512631992361845</v>
+        <v>4.2022535385999999</v>
       </c>
       <c r="D32" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="F32" t="s">
         <v>191</v>
@@ -1884,50 +1936,44 @@
         <v>195</v>
       </c>
       <c r="H32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I32" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B33">
-        <v>2.1618060909095029</v>
-      </c>
-      <c r="C33" t="s">
-        <v>90</v>
+        <v>3.4363611128654239</v>
       </c>
       <c r="D33" t="s">
-        <v>128</v>
-      </c>
-      <c r="E33" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="F33" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G33" t="s">
         <v>195</v>
       </c>
       <c r="H33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I33" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B34">
-        <v>7.4050862285420909</v>
+        <v>8.4090931265900011</v>
       </c>
       <c r="D34" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="F34" t="s">
         <v>191</v>
@@ -1939,56 +1985,56 @@
         <v>202</v>
       </c>
       <c r="I34" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="B35">
-        <v>1.9299681763706871</v>
+        <v>2.3310987137657002</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D35" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="E35" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F35" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G35" t="s">
         <v>195</v>
       </c>
       <c r="H35" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I35" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B36">
-        <v>15.42802065126922</v>
+        <v>0.36343829697399999</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E36" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F36" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G36" t="s">
         <v>195</v>
@@ -1997,70 +2043,64 @@
         <v>196</v>
       </c>
       <c r="I36" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="B37">
-        <v>0.1108038657774448</v>
-      </c>
-      <c r="C37" t="s">
-        <v>90</v>
+        <v>11.90407993924279</v>
       </c>
       <c r="D37" t="s">
-        <v>132</v>
-      </c>
-      <c r="E37" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F37" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G37" t="s">
         <v>195</v>
       </c>
       <c r="H37" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I37" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="B38">
-        <v>3.503071061728495</v>
+        <v>5.5744239812850003</v>
       </c>
       <c r="D38" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="F38" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G38" t="s">
         <v>195</v>
       </c>
       <c r="H38" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I38" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B39">
-        <v>0.98914607241399999</v>
+        <v>5.8048648944920016</v>
       </c>
       <c r="D39" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F39" t="s">
         <v>191</v>
@@ -2069,21 +2109,21 @@
         <v>195</v>
       </c>
       <c r="H39" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I39" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>1.8741904575772601</v>
+        <v>0.24046870558949229</v>
       </c>
       <c r="D40" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F40" t="s">
         <v>191</v>
@@ -2092,73 +2132,73 @@
         <v>195</v>
       </c>
       <c r="H40" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I40" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="B41">
-        <v>6.1393784953299999</v>
+        <v>1.9738924554655051</v>
+      </c>
+      <c r="C41" t="s">
+        <v>96</v>
       </c>
       <c r="D41" t="s">
-        <v>136</v>
+        <v>171</v>
+      </c>
+      <c r="E41" t="s">
+        <v>184</v>
       </c>
       <c r="F41" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G41" t="s">
         <v>195</v>
       </c>
       <c r="H41" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I41" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="B42">
-        <v>1.141145864636208</v>
-      </c>
-      <c r="C42" t="s">
-        <v>91</v>
+        <v>4.4128874395813229</v>
       </c>
       <c r="D42" t="s">
-        <v>137</v>
-      </c>
-      <c r="E42" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="F42" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G42" t="s">
         <v>195</v>
       </c>
       <c r="H42" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I42" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.24046870558949229</v>
+        <v>0.98914607241399999</v>
       </c>
       <c r="D43" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F43" t="s">
         <v>191</v>
@@ -2167,90 +2207,96 @@
         <v>195</v>
       </c>
       <c r="H43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I43" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B44">
-        <v>8.4090931265900011</v>
+        <v>7.6442888516325542</v>
+      </c>
+      <c r="C44" t="s">
+        <v>88</v>
       </c>
       <c r="D44" t="s">
-        <v>139</v>
+        <v>122</v>
+      </c>
+      <c r="E44" t="s">
+        <v>176</v>
       </c>
       <c r="F44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G44" t="s">
         <v>195</v>
       </c>
       <c r="H44" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I44" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B45">
-        <v>10.276967100669291</v>
+        <v>1.5107293693091239</v>
       </c>
       <c r="D45" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="F45" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G45" t="s">
         <v>195</v>
       </c>
       <c r="H45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I45" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="B46">
-        <v>0.94867790267675067</v>
+        <v>3.4186761608069598</v>
       </c>
       <c r="D46" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="F46" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G46" t="s">
         <v>195</v>
       </c>
       <c r="H46" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="I46" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.35288457374953452</v>
+        <v>0.94867790267675067</v>
       </c>
       <c r="D47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F47" t="s">
         <v>191</v>
@@ -2259,7 +2305,7 @@
         <v>195</v>
       </c>
       <c r="H47" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I47" t="s">
         <v>208</v>
@@ -2267,129 +2313,111 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B48">
-        <v>3.0638928050827952</v>
+        <v>24.972920132110271</v>
       </c>
       <c r="C48" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D48" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E48" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F48" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G48" t="s">
         <v>195</v>
       </c>
       <c r="H48" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I48" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B49">
-        <v>1.0398021956991279</v>
-      </c>
-      <c r="C49" t="s">
-        <v>89</v>
+        <v>3.0646686931746712</v>
       </c>
       <c r="D49" t="s">
-        <v>144</v>
-      </c>
-      <c r="E49" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="F49" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G49" t="s">
         <v>195</v>
       </c>
       <c r="H49" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I49" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B50">
-        <v>21.5912494628</v>
-      </c>
-      <c r="C50" t="s">
-        <v>90</v>
+        <v>12.6067864826</v>
       </c>
       <c r="D50" t="s">
-        <v>145</v>
-      </c>
-      <c r="E50" t="s">
-        <v>178</v>
+        <v>105</v>
       </c>
       <c r="F50" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G50" t="s">
         <v>195</v>
       </c>
       <c r="H50" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I50" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="B51">
-        <v>1.4644855013698239</v>
-      </c>
-      <c r="C51" t="s">
-        <v>92</v>
+        <v>7.9678346375599993</v>
       </c>
       <c r="D51" t="s">
-        <v>146</v>
-      </c>
-      <c r="E51" t="s">
-        <v>180</v>
+        <v>98</v>
       </c>
       <c r="F51" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G51" t="s">
         <v>195</v>
       </c>
       <c r="H51" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I51" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B52">
-        <v>4.2022535385999999</v>
+        <v>1.550354452950391</v>
       </c>
       <c r="D52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F52" t="s">
         <v>191</v>
@@ -2401,27 +2429,21 @@
         <v>199</v>
       </c>
       <c r="I52" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="B53">
-        <v>1.7884078192740001</v>
-      </c>
-      <c r="C53" t="s">
-        <v>89</v>
+        <v>1.4996898654099999</v>
       </c>
       <c r="D53" t="s">
-        <v>148</v>
-      </c>
-      <c r="E53" t="s">
-        <v>177</v>
+        <v>97</v>
       </c>
       <c r="F53" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G53" t="s">
         <v>195</v>
@@ -2430,21 +2452,21 @@
         <v>196</v>
       </c>
       <c r="I53" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="B54">
-        <v>1.550354452950391</v>
+        <v>4.9504599149299997</v>
       </c>
       <c r="D54" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G54" t="s">
         <v>195</v>
@@ -2453,70 +2475,76 @@
         <v>199</v>
       </c>
       <c r="I54" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="B55">
-        <v>7.2491471766700002</v>
+        <v>2.4106892217360381</v>
+      </c>
+      <c r="C55" t="s">
+        <v>86</v>
       </c>
       <c r="D55" t="s">
-        <v>150</v>
+        <v>109</v>
+      </c>
+      <c r="E55" t="s">
+        <v>174</v>
       </c>
       <c r="F55" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G55" t="s">
         <v>195</v>
       </c>
       <c r="H55" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I55" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>24.972920132110271</v>
+        <v>1.7884078192740001</v>
       </c>
       <c r="C56" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D56" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E56" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F56" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G56" t="s">
         <v>195</v>
       </c>
       <c r="H56" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I56" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B57">
-        <v>15.702687604910921</v>
+        <v>2.3232529267690452</v>
       </c>
       <c r="D57" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F57" t="s">
         <v>192</v>
@@ -2525,21 +2553,21 @@
         <v>195</v>
       </c>
       <c r="H57" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I57" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B58">
-        <v>0.28072330065204287</v>
+        <v>2.6896870630099321</v>
       </c>
       <c r="D58" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="F58" t="s">
         <v>192</v>
@@ -2548,59 +2576,53 @@
         <v>195</v>
       </c>
       <c r="H58" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I58" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="B59">
-        <v>3.7143630815900832</v>
-      </c>
-      <c r="C59" t="s">
-        <v>93</v>
+        <v>0.16325462437129001</v>
       </c>
       <c r="D59" t="s">
-        <v>154</v>
-      </c>
-      <c r="E59" t="s">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="F59" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G59" t="s">
         <v>195</v>
       </c>
       <c r="H59" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="B60">
-        <v>1.4454919253398539</v>
+        <v>4.3548111669965062</v>
       </c>
       <c r="D60" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="F60" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G60" t="s">
         <v>195</v>
       </c>
       <c r="H60" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I60" t="s">
         <v>208</v>
@@ -2608,22 +2630,22 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="B61">
-        <v>3.4363611128654239</v>
+        <v>3.512631992361845</v>
       </c>
       <c r="D61" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="F61" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G61" t="s">
         <v>195</v>
       </c>
       <c r="H61" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I61" t="s">
         <v>208</v>
@@ -2631,13 +2653,13 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>2.3232529267690452</v>
+        <v>2.475749772500532</v>
       </c>
       <c r="D62" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F62" t="s">
         <v>192</v>
@@ -2649,67 +2671,67 @@
         <v>199</v>
       </c>
       <c r="I62" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="B63">
-        <v>2.475749772500532</v>
+        <v>22.78972343693621</v>
       </c>
       <c r="D63" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="F63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G63" t="s">
         <v>195</v>
       </c>
       <c r="H63" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I63" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="B64">
-        <v>6.2028970171399997</v>
+        <v>11.531646543500001</v>
       </c>
       <c r="D64" t="s">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="F64" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G64" t="s">
         <v>195</v>
       </c>
       <c r="H64" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="I64" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="B65">
-        <v>1.34183517078</v>
+        <v>6.1393784953299999</v>
       </c>
       <c r="D65" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="F65" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G65" t="s">
         <v>195</v>
@@ -2723,13 +2745,13 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B66">
-        <v>1.1135165997300001</v>
+        <v>0.28072330065204287</v>
       </c>
       <c r="D66" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F66" t="s">
         <v>192</v>
@@ -2738,67 +2760,73 @@
         <v>195</v>
       </c>
       <c r="H66" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I66" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="B67">
-        <v>2.6896870630099321</v>
+        <v>10.5721885661376</v>
       </c>
       <c r="D67" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="F67" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G67" t="s">
         <v>195</v>
       </c>
       <c r="H67" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I67" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B68">
-        <v>5.5744239812850003</v>
+        <v>0.51700399124031526</v>
+      </c>
+      <c r="C68" t="s">
+        <v>95</v>
       </c>
       <c r="D68" t="s">
-        <v>163</v>
+        <v>167</v>
+      </c>
+      <c r="E68" t="s">
+        <v>183</v>
       </c>
       <c r="F68" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G68" t="s">
         <v>195</v>
       </c>
       <c r="H68" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I68" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>19.028718451565801</v>
+        <v>1.1135165997300001</v>
       </c>
       <c r="D69" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F69" t="s">
         <v>192</v>
@@ -2807,7 +2835,7 @@
         <v>195</v>
       </c>
       <c r="H69" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I69" t="s">
         <v>221</v>
@@ -2815,120 +2843,126 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="B70">
-        <v>2.3310987137657002</v>
+        <v>0.33000333380554819</v>
       </c>
       <c r="C70" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D70" t="s">
-        <v>165</v>
+        <v>106</v>
       </c>
       <c r="E70" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F70" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G70" t="s">
         <v>195</v>
       </c>
       <c r="H70" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I70" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B71">
-        <v>11.90407993924279</v>
+        <v>1.0398021956991279</v>
+      </c>
+      <c r="C71" t="s">
+        <v>89</v>
       </c>
       <c r="D71" t="s">
-        <v>166</v>
+        <v>144</v>
+      </c>
+      <c r="E71" t="s">
+        <v>177</v>
       </c>
       <c r="F71" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G71" t="s">
         <v>195</v>
       </c>
       <c r="H71" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I71" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="B72">
-        <v>0.51700399124031526</v>
-      </c>
-      <c r="C72" t="s">
-        <v>95</v>
+        <v>1.0581000927489479</v>
       </c>
       <c r="D72" t="s">
-        <v>167</v>
-      </c>
-      <c r="E72" t="s">
-        <v>183</v>
+        <v>107</v>
       </c>
       <c r="F72" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G72" t="s">
         <v>195</v>
       </c>
       <c r="H72" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I72" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="B73">
-        <v>4.4128874395813229</v>
+        <v>7.4819984830510933</v>
       </c>
       <c r="D73" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="F73" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G73" t="s">
         <v>195</v>
       </c>
       <c r="H73" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I73" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B74">
-        <v>1.600590119251436</v>
+        <v>1.4644855013698239</v>
+      </c>
+      <c r="C74" t="s">
+        <v>92</v>
       </c>
       <c r="D74" t="s">
-        <v>169</v>
+        <v>146</v>
+      </c>
+      <c r="E74" t="s">
+        <v>180</v>
       </c>
       <c r="F74" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G74" t="s">
         <v>195</v>
@@ -2937,79 +2971,73 @@
         <v>196</v>
       </c>
       <c r="I74" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="B75">
-        <v>10.23564718904726</v>
+        <v>0.55924126414497843</v>
       </c>
       <c r="C75" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D75" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="E75" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F75" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G75" t="s">
         <v>195</v>
       </c>
       <c r="H75" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I75" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="B76">
-        <v>1.9738924554655051</v>
-      </c>
-      <c r="C76" t="s">
-        <v>96</v>
+        <v>4.7890140375600003</v>
       </c>
       <c r="D76" t="s">
-        <v>171</v>
-      </c>
-      <c r="E76" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="F76" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G76" t="s">
         <v>195</v>
       </c>
       <c r="H76" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="I76" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="B77">
-        <v>5.2935940218628854</v>
+        <v>7.2491471766700002</v>
       </c>
       <c r="D77" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="F77" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G77" t="s">
         <v>195</v>
@@ -3018,34 +3046,38 @@
         <v>199</v>
       </c>
       <c r="I77" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="B78">
-        <v>3.4186761608069598</v>
+        <v>1.8741904575772601</v>
       </c>
       <c r="D78" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="F78" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G78" t="s">
         <v>195</v>
       </c>
       <c r="H78" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I78" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I78" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I78">
+      <sortCondition ref="D1:D78"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/MetalliCan/cleaned_data/land_table_mining.xlsx
+++ b/data/MetalliCan/cleaned_data/land_table_mining.xlsx
@@ -1,37 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca-my.sharepoint.com/personal/marin_pellan_polymtl_ca/Documents/POST_DOC/CODE/regionalized_lci_mineral/data/MetalliCan/cleaned_data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_27C981E737634D2B672D4C9BADEC1EE77878CEAE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADD070D5-60BE-421D-B31B-44BF2032EB71}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$78</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -749,8 +727,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -813,25 +791,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -869,7 +835,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -903,7 +869,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -938,10 +903,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1114,27 +1078,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.90625" customWidth="1"/>
-    <col min="8" max="8" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7265625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1163,41 +1114,41 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>15.702687604910921</v>
+        <v>1.49968986541</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G2" t="s">
         <v>195</v>
       </c>
       <c r="H2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>19.028718451565801</v>
+        <v>7.967834637559999</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G3" t="s">
         <v>195</v>
@@ -1206,174 +1157,156 @@
         <v>197</v>
       </c>
       <c r="I3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>26.10464881795129</v>
+        <v>0.4167368603415594</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G4" t="s">
         <v>195</v>
       </c>
       <c r="H4" t="s">
+        <v>198</v>
+      </c>
+      <c r="I4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>13.2332103886</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H5" t="s">
         <v>197</v>
       </c>
-      <c r="I4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5">
-        <v>6.2028970171399997</v>
-      </c>
-      <c r="D5" t="s">
-        <v>159</v>
-      </c>
-      <c r="F5" t="s">
-        <v>192</v>
-      </c>
-      <c r="G5" t="s">
-        <v>195</v>
-      </c>
-      <c r="H5" t="s">
-        <v>202</v>
-      </c>
       <c r="I5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>1.600590119251436</v>
+        <v>22.5279986785</v>
       </c>
       <c r="D6" t="s">
-        <v>169</v>
+        <v>101</v>
       </c>
       <c r="F6" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G6" t="s">
         <v>195</v>
       </c>
       <c r="H6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>3.0638928050827952</v>
-      </c>
-      <c r="C7" t="s">
-        <v>90</v>
+        <v>11.5316465435</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E7" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="F7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G7" t="s">
         <v>195</v>
       </c>
       <c r="H7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.1108038657774448</v>
-      </c>
-      <c r="C8" t="s">
-        <v>90</v>
+        <v>4.95045991493</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E8" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="F8" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G8" t="s">
         <v>195</v>
       </c>
       <c r="H8" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>21.5912494628</v>
-      </c>
-      <c r="C9" t="s">
-        <v>90</v>
+        <v>63.9242598049</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E9" t="s">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="F9" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G9" t="s">
         <v>195</v>
       </c>
       <c r="H9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>13.2332103886</v>
+        <v>12.6067864826</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F10" t="s">
         <v>185</v>
@@ -1388,442 +1321,436 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>1.9299681763706871</v>
+        <v>0.3300033338055482</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="E11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F11" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G11" t="s">
         <v>195</v>
       </c>
       <c r="H11" t="s">
+        <v>200</v>
+      </c>
+      <c r="I11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>1.058100092748948</v>
+      </c>
+      <c r="D12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" t="s">
+        <v>186</v>
+      </c>
+      <c r="G12" t="s">
+        <v>195</v>
+      </c>
+      <c r="H12" t="s">
+        <v>201</v>
+      </c>
+      <c r="I12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>0.363438296974</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" t="s">
+        <v>186</v>
+      </c>
+      <c r="G13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H13" t="s">
         <v>196</v>
       </c>
-      <c r="I11" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12">
-        <v>10.276967100669291</v>
-      </c>
-      <c r="D12" t="s">
-        <v>140</v>
-      </c>
-      <c r="F12" t="s">
-        <v>191</v>
-      </c>
-      <c r="G12" t="s">
-        <v>195</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="I13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>2.410689221736038</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" t="s">
+        <v>186</v>
+      </c>
+      <c r="G14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H14" t="s">
+        <v>200</v>
+      </c>
+      <c r="I14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>7.481998483051093</v>
+      </c>
+      <c r="D15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" t="s">
+        <v>186</v>
+      </c>
+      <c r="G15" t="s">
+        <v>195</v>
+      </c>
+      <c r="H15" t="s">
+        <v>202</v>
+      </c>
+      <c r="I15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>4.78901403756</v>
+      </c>
+      <c r="D16" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" t="s">
+        <v>187</v>
+      </c>
+      <c r="G16" t="s">
+        <v>195</v>
+      </c>
+      <c r="H16" t="s">
+        <v>202</v>
+      </c>
+      <c r="I16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>0.16325462437129</v>
+      </c>
+      <c r="D17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17" t="s">
+        <v>195</v>
+      </c>
+      <c r="H17" t="s">
+        <v>200</v>
+      </c>
+      <c r="I17" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>10.5721885661376</v>
+      </c>
+      <c r="D18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" t="s">
+        <v>195</v>
+      </c>
+      <c r="H18" t="s">
         <v>197</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I18" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>1.510729369309124</v>
+      </c>
+      <c r="D19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19" t="s">
+        <v>195</v>
+      </c>
+      <c r="H19" t="s">
+        <v>196</v>
+      </c>
+      <c r="I19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20">
+        <v>26.10464881795129</v>
+      </c>
+      <c r="D20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" t="s">
+        <v>195</v>
+      </c>
+      <c r="H20" t="s">
+        <v>197</v>
+      </c>
+      <c r="I20" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>10.34079584070311</v>
+      </c>
+      <c r="C21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" t="s">
+        <v>175</v>
+      </c>
+      <c r="F21" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21" t="s">
+        <v>195</v>
+      </c>
+      <c r="H21" t="s">
+        <v>198</v>
+      </c>
+      <c r="I21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22">
+        <v>4.354811166996506</v>
+      </c>
+      <c r="D22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22" t="s">
+        <v>195</v>
+      </c>
+      <c r="H22" t="s">
+        <v>197</v>
+      </c>
+      <c r="I22" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <v>3.064668693174671</v>
+      </c>
+      <c r="D23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" t="s">
+        <v>195</v>
+      </c>
+      <c r="H23" t="s">
+        <v>197</v>
+      </c>
+      <c r="I23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
         <v>31</v>
       </c>
-      <c r="B13">
-        <v>9.9929915686563149</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B24">
+        <v>9.992991568656315</v>
+      </c>
+      <c r="D24" t="s">
         <v>119</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F24" t="s">
         <v>189</v>
       </c>
-      <c r="G13" t="s">
-        <v>195</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="G24" t="s">
+        <v>195</v>
+      </c>
+      <c r="H24" t="s">
         <v>203</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I24" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14">
-        <v>10.340795840703111</v>
-      </c>
-      <c r="C14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E14" t="s">
-        <v>175</v>
-      </c>
-      <c r="F14" t="s">
-        <v>187</v>
-      </c>
-      <c r="G14" t="s">
-        <v>195</v>
-      </c>
-      <c r="H14" t="s">
-        <v>198</v>
-      </c>
-      <c r="I14" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15">
-        <v>0.35288457374953452</v>
-      </c>
-      <c r="D15" t="s">
-        <v>142</v>
-      </c>
-      <c r="F15" t="s">
-        <v>191</v>
-      </c>
-      <c r="G15" t="s">
-        <v>195</v>
-      </c>
-      <c r="H15" t="s">
-        <v>199</v>
-      </c>
-      <c r="I15" t="s">
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <v>16.82681756129609</v>
+      </c>
+      <c r="D25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" t="s">
+        <v>203</v>
+      </c>
+      <c r="I25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26">
+        <v>0.1269627450922684</v>
+      </c>
+      <c r="D26" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G26" t="s">
+        <v>195</v>
+      </c>
+      <c r="H26" t="s">
+        <v>204</v>
+      </c>
+      <c r="I26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27">
+        <v>7.644288851632554</v>
+      </c>
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" t="s">
+        <v>176</v>
+      </c>
+      <c r="F27" t="s">
+        <v>190</v>
+      </c>
+      <c r="G27" t="s">
+        <v>195</v>
+      </c>
+      <c r="H27" t="s">
+        <v>200</v>
+      </c>
+      <c r="I27" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16">
-        <v>16.826817561296089</v>
-      </c>
-      <c r="D16" t="s">
-        <v>120</v>
-      </c>
-      <c r="F16" t="s">
-        <v>189</v>
-      </c>
-      <c r="G16" t="s">
-        <v>195</v>
-      </c>
-      <c r="H16" t="s">
-        <v>203</v>
-      </c>
-      <c r="I16" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17">
-        <v>1.4454919253398539</v>
-      </c>
-      <c r="D17" t="s">
-        <v>155</v>
-      </c>
-      <c r="F17" t="s">
-        <v>192</v>
-      </c>
-      <c r="G17" t="s">
-        <v>195</v>
-      </c>
-      <c r="H17" t="s">
-        <v>199</v>
-      </c>
-      <c r="I17" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18">
-        <v>0.41673686034155938</v>
-      </c>
-      <c r="D18" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" t="s">
-        <v>185</v>
-      </c>
-      <c r="G18" t="s">
-        <v>195</v>
-      </c>
-      <c r="H18" t="s">
-        <v>198</v>
-      </c>
-      <c r="I18" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19">
-        <v>3.7143630815900832</v>
-      </c>
-      <c r="C19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" t="s">
-        <v>154</v>
-      </c>
-      <c r="E19" t="s">
-        <v>181</v>
-      </c>
-      <c r="F19" t="s">
-        <v>192</v>
-      </c>
-      <c r="G19" t="s">
-        <v>195</v>
-      </c>
-      <c r="H19" t="s">
-        <v>198</v>
-      </c>
-      <c r="I19" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20">
-        <v>7.4050862285420909</v>
-      </c>
-      <c r="D20" t="s">
-        <v>129</v>
-      </c>
-      <c r="F20" t="s">
-        <v>191</v>
-      </c>
-      <c r="G20" t="s">
-        <v>195</v>
-      </c>
-      <c r="H20" t="s">
-        <v>202</v>
-      </c>
-      <c r="I20" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21">
-        <v>1.7609135958396691</v>
-      </c>
-      <c r="C21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" t="s">
-        <v>125</v>
-      </c>
-      <c r="E21" t="s">
-        <v>177</v>
-      </c>
-      <c r="F21" t="s">
-        <v>191</v>
-      </c>
-      <c r="G21" t="s">
-        <v>195</v>
-      </c>
-      <c r="H21" t="s">
-        <v>196</v>
-      </c>
-      <c r="I21" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22">
-        <v>0.1269627450922684</v>
-      </c>
-      <c r="D22" t="s">
-        <v>121</v>
-      </c>
-      <c r="F22" t="s">
-        <v>189</v>
-      </c>
-      <c r="G22" t="s">
-        <v>195</v>
-      </c>
-      <c r="H22" t="s">
-        <v>204</v>
-      </c>
-      <c r="I22" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23">
-        <v>2.1618060909095029</v>
-      </c>
-      <c r="C23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" t="s">
-        <v>178</v>
-      </c>
-      <c r="F23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G23" t="s">
-        <v>195</v>
-      </c>
-      <c r="H23" t="s">
-        <v>196</v>
-      </c>
-      <c r="I23" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24">
-        <v>22.527998678500001</v>
-      </c>
-      <c r="D24" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" t="s">
-        <v>185</v>
-      </c>
-      <c r="G24" t="s">
-        <v>195</v>
-      </c>
-      <c r="H24" t="s">
-        <v>197</v>
-      </c>
-      <c r="I24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25">
-        <v>1.34183517078</v>
-      </c>
-      <c r="D25" t="s">
-        <v>160</v>
-      </c>
-      <c r="F25" t="s">
-        <v>192</v>
-      </c>
-      <c r="G25" t="s">
-        <v>195</v>
-      </c>
-      <c r="H25" t="s">
-        <v>199</v>
-      </c>
-      <c r="I25" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26">
-        <v>3.503071061728495</v>
-      </c>
-      <c r="D26" t="s">
-        <v>133</v>
-      </c>
-      <c r="F26" t="s">
-        <v>191</v>
-      </c>
-      <c r="G26" t="s">
-        <v>195</v>
-      </c>
-      <c r="H26" t="s">
-        <v>202</v>
-      </c>
-      <c r="I26" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27">
-        <v>63.924259804899997</v>
-      </c>
-      <c r="D27" t="s">
-        <v>104</v>
-      </c>
-      <c r="F27" t="s">
-        <v>185</v>
-      </c>
-      <c r="G27" t="s">
-        <v>195</v>
-      </c>
-      <c r="H27" t="s">
-        <v>197</v>
-      </c>
-      <c r="I27" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>1.141145864636208</v>
-      </c>
-      <c r="C28" t="s">
-        <v>91</v>
+        <v>22.78972343693621</v>
       </c>
       <c r="D28" t="s">
-        <v>137</v>
-      </c>
-      <c r="E28" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="F28" t="s">
         <v>191</v>
@@ -1832,27 +1759,21 @@
         <v>195</v>
       </c>
       <c r="H28" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="I28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>15.42802065126922</v>
-      </c>
-      <c r="C29" t="s">
-        <v>91</v>
+        <v>5.804864894492002</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
-      </c>
-      <c r="E29" t="s">
-        <v>179</v>
+        <v>124</v>
       </c>
       <c r="F29" t="s">
         <v>191</v>
@@ -1861,73 +1782,79 @@
         <v>195</v>
       </c>
       <c r="H29" t="s">
+        <v>199</v>
+      </c>
+      <c r="I29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30">
+        <v>1.760913595839669</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" t="s">
+        <v>177</v>
+      </c>
+      <c r="F30" t="s">
+        <v>191</v>
+      </c>
+      <c r="G30" t="s">
+        <v>195</v>
+      </c>
+      <c r="H30" t="s">
         <v>196</v>
       </c>
-      <c r="I29" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30">
-        <v>5.2935940218628854</v>
-      </c>
-      <c r="D30" t="s">
-        <v>172</v>
-      </c>
-      <c r="F30" t="s">
-        <v>194</v>
-      </c>
-      <c r="G30" t="s">
-        <v>195</v>
-      </c>
-      <c r="H30" t="s">
-        <v>199</v>
-      </c>
       <c r="I30" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>10.23564718904726</v>
+        <v>0.5592412641449784</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="E31" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G31" t="s">
         <v>195</v>
       </c>
       <c r="H31" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I31" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>4.2022535385999999</v>
+        <v>3.512631992361845</v>
       </c>
       <c r="D32" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="F32" t="s">
         <v>191</v>
@@ -1936,44 +1863,50 @@
         <v>195</v>
       </c>
       <c r="H32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I32" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>3.4363611128654239</v>
+        <v>2.161806090909503</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
       </c>
       <c r="D33" t="s">
-        <v>156</v>
+        <v>128</v>
+      </c>
+      <c r="E33" t="s">
+        <v>178</v>
       </c>
       <c r="F33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G33" t="s">
         <v>195</v>
       </c>
       <c r="H33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I33" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>8.4090931265900011</v>
+        <v>7.405086228542091</v>
       </c>
       <c r="D34" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F34" t="s">
         <v>191</v>
@@ -1985,56 +1918,56 @@
         <v>202</v>
       </c>
       <c r="I34" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>2.3310987137657002</v>
+        <v>1.929968176370687</v>
       </c>
       <c r="C35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D35" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="E35" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G35" t="s">
         <v>195</v>
       </c>
       <c r="H35" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I35" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.36343829697399999</v>
+        <v>15.42802065126922</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D36" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="E36" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F36" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G36" t="s">
         <v>195</v>
@@ -2043,64 +1976,70 @@
         <v>196</v>
       </c>
       <c r="I36" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B37">
-        <v>11.90407993924279</v>
+        <v>0.1108038657774448</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
       </c>
       <c r="D37" t="s">
-        <v>166</v>
+        <v>132</v>
+      </c>
+      <c r="E37" t="s">
+        <v>178</v>
       </c>
       <c r="F37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G37" t="s">
         <v>195</v>
       </c>
       <c r="H37" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I37" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>3.503071061728495</v>
+      </c>
+      <c r="D38" t="s">
+        <v>133</v>
+      </c>
+      <c r="F38" t="s">
+        <v>191</v>
+      </c>
+      <c r="G38" t="s">
+        <v>195</v>
+      </c>
+      <c r="H38" t="s">
+        <v>202</v>
+      </c>
+      <c r="I38" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38">
-        <v>5.5744239812850003</v>
-      </c>
-      <c r="D38" t="s">
-        <v>163</v>
-      </c>
-      <c r="F38" t="s">
-        <v>192</v>
-      </c>
-      <c r="G38" t="s">
-        <v>195</v>
-      </c>
-      <c r="H38" t="s">
-        <v>199</v>
-      </c>
-      <c r="I38" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>5.8048648944920016</v>
+        <v>0.989146072414</v>
       </c>
       <c r="D39" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="F39" t="s">
         <v>191</v>
@@ -2109,21 +2048,21 @@
         <v>195</v>
       </c>
       <c r="H39" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I39" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.24046870558949229</v>
+        <v>1.87419045757726</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F40" t="s">
         <v>191</v>
@@ -2132,73 +2071,73 @@
         <v>195</v>
       </c>
       <c r="H40" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I40" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41">
+        <v>6.13937849533</v>
+      </c>
+      <c r="D41" t="s">
+        <v>136</v>
+      </c>
+      <c r="F41" t="s">
+        <v>191</v>
+      </c>
+      <c r="G41" t="s">
+        <v>195</v>
+      </c>
+      <c r="H41" t="s">
+        <v>199</v>
+      </c>
+      <c r="I41" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41">
-        <v>1.9738924554655051</v>
-      </c>
-      <c r="C41" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" t="s">
-        <v>171</v>
-      </c>
-      <c r="E41" t="s">
-        <v>184</v>
-      </c>
-      <c r="F41" t="s">
-        <v>193</v>
-      </c>
-      <c r="G41" t="s">
-        <v>195</v>
-      </c>
-      <c r="H41" t="s">
-        <v>196</v>
-      </c>
-      <c r="I41" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>4.4128874395813229</v>
+        <v>1.141145864636208</v>
+      </c>
+      <c r="C42" t="s">
+        <v>91</v>
       </c>
       <c r="D42" t="s">
-        <v>168</v>
+        <v>137</v>
+      </c>
+      <c r="E42" t="s">
+        <v>179</v>
       </c>
       <c r="F42" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G42" t="s">
         <v>195</v>
       </c>
       <c r="H42" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I42" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.98914607241399999</v>
+        <v>0.2404687055894923</v>
       </c>
       <c r="D43" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F43" t="s">
         <v>191</v>
@@ -2207,96 +2146,90 @@
         <v>195</v>
       </c>
       <c r="H43" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I43" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>7.6442888516325542</v>
-      </c>
-      <c r="C44" t="s">
-        <v>88</v>
+        <v>8.409093126590001</v>
       </c>
       <c r="D44" t="s">
-        <v>122</v>
-      </c>
-      <c r="E44" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F44" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G44" t="s">
         <v>195</v>
       </c>
       <c r="H44" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I44" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45">
+        <v>10.27696710066929</v>
+      </c>
+      <c r="D45" t="s">
+        <v>140</v>
+      </c>
+      <c r="F45" t="s">
+        <v>191</v>
+      </c>
+      <c r="G45" t="s">
+        <v>195</v>
+      </c>
+      <c r="H45" t="s">
+        <v>197</v>
+      </c>
+      <c r="I45" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45">
-        <v>1.5107293693091239</v>
-      </c>
-      <c r="D45" t="s">
-        <v>114</v>
-      </c>
-      <c r="F45" t="s">
-        <v>187</v>
-      </c>
-      <c r="G45" t="s">
-        <v>195</v>
-      </c>
-      <c r="H45" t="s">
-        <v>196</v>
-      </c>
-      <c r="I45" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>3.4186761608069598</v>
+        <v>0.9486779026767507</v>
       </c>
       <c r="D46" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="F46" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G46" t="s">
         <v>195</v>
       </c>
       <c r="H46" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I46" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.94867790267675067</v>
+        <v>0.3528845737495345</v>
       </c>
       <c r="D47" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F47" t="s">
         <v>191</v>
@@ -2305,119 +2238,137 @@
         <v>195</v>
       </c>
       <c r="H47" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I47" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>24.972920132110271</v>
+        <v>3.063892805082795</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D48" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E48" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F48" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G48" t="s">
         <v>195</v>
       </c>
       <c r="H48" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I48" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>3.0646686931746712</v>
+        <v>1.039802195699128</v>
+      </c>
+      <c r="C49" t="s">
+        <v>89</v>
       </c>
       <c r="D49" t="s">
-        <v>118</v>
+        <v>144</v>
+      </c>
+      <c r="E49" t="s">
+        <v>177</v>
       </c>
       <c r="F49" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G49" t="s">
         <v>195</v>
       </c>
       <c r="H49" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I49" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50">
+        <v>21.5912494628</v>
+      </c>
+      <c r="C50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" t="s">
+        <v>145</v>
+      </c>
+      <c r="E50" t="s">
+        <v>178</v>
+      </c>
+      <c r="F50" t="s">
+        <v>191</v>
+      </c>
+      <c r="G50" t="s">
+        <v>195</v>
+      </c>
+      <c r="H50" t="s">
+        <v>196</v>
+      </c>
+      <c r="I50" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51">
+        <v>1.464485501369824</v>
+      </c>
+      <c r="C51" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" t="s">
+        <v>146</v>
+      </c>
+      <c r="E51" t="s">
+        <v>180</v>
+      </c>
+      <c r="F51" t="s">
+        <v>191</v>
+      </c>
+      <c r="G51" t="s">
+        <v>195</v>
+      </c>
+      <c r="H51" t="s">
+        <v>196</v>
+      </c>
+      <c r="I51" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B50">
-        <v>12.6067864826</v>
-      </c>
-      <c r="D50" t="s">
-        <v>105</v>
-      </c>
-      <c r="F50" t="s">
-        <v>185</v>
-      </c>
-      <c r="G50" t="s">
-        <v>195</v>
-      </c>
-      <c r="H50" t="s">
-        <v>197</v>
-      </c>
-      <c r="I50" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51">
-        <v>7.9678346375599993</v>
-      </c>
-      <c r="D51" t="s">
-        <v>98</v>
-      </c>
-      <c r="F51" t="s">
-        <v>185</v>
-      </c>
-      <c r="G51" t="s">
-        <v>195</v>
-      </c>
-      <c r="H51" t="s">
-        <v>197</v>
-      </c>
-      <c r="I51" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B52">
-        <v>1.550354452950391</v>
+        <v>4.2022535386</v>
       </c>
       <c r="D52" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F52" t="s">
         <v>191</v>
@@ -2429,21 +2380,27 @@
         <v>199</v>
       </c>
       <c r="I52" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>1.4996898654099999</v>
+        <v>1.788407819274</v>
+      </c>
+      <c r="C53" t="s">
+        <v>89</v>
       </c>
       <c r="D53" t="s">
-        <v>97</v>
+        <v>148</v>
+      </c>
+      <c r="E53" t="s">
+        <v>177</v>
       </c>
       <c r="F53" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="G53" t="s">
         <v>195</v>
@@ -2452,21 +2409,21 @@
         <v>196</v>
       </c>
       <c r="I53" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>4.9504599149299997</v>
+        <v>1.550354452950391</v>
       </c>
       <c r="D54" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="F54" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="G54" t="s">
         <v>195</v>
@@ -2475,76 +2432,70 @@
         <v>199</v>
       </c>
       <c r="I54" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>2.4106892217360381</v>
-      </c>
-      <c r="C55" t="s">
-        <v>86</v>
+        <v>7.24914717667</v>
       </c>
       <c r="D55" t="s">
-        <v>109</v>
-      </c>
-      <c r="E55" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="F55" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="G55" t="s">
         <v>195</v>
       </c>
       <c r="H55" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I55" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>1.7884078192740001</v>
+        <v>24.97292013211027</v>
       </c>
       <c r="C56" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D56" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E56" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F56" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G56" t="s">
         <v>195</v>
       </c>
       <c r="H56" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I56" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>2.3232529267690452</v>
+        <v>15.70268760491092</v>
       </c>
       <c r="D57" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F57" t="s">
         <v>192</v>
@@ -2553,21 +2504,21 @@
         <v>195</v>
       </c>
       <c r="H57" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I57" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>2.6896870630099321</v>
+        <v>0.2807233006520429</v>
       </c>
       <c r="D58" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F58" t="s">
         <v>192</v>
@@ -2576,90 +2527,96 @@
         <v>195</v>
       </c>
       <c r="H58" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I58" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.16325462437129001</v>
+        <v>3.714363081590083</v>
+      </c>
+      <c r="C59" t="s">
+        <v>93</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>154</v>
+      </c>
+      <c r="E59" t="s">
+        <v>181</v>
       </c>
       <c r="F59" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="G59" t="s">
         <v>195</v>
       </c>
       <c r="H59" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I59" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>4.3548111669965062</v>
+        <v>1.445491925339854</v>
       </c>
       <c r="D60" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="F60" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="G60" t="s">
         <v>195</v>
       </c>
       <c r="H60" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I60" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>3.512631992361845</v>
+        <v>3.436361112865424</v>
       </c>
       <c r="D61" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="F61" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G61" t="s">
         <v>195</v>
       </c>
       <c r="H61" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I61" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>2.475749772500532</v>
+        <v>2.323252926769045</v>
       </c>
       <c r="D62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F62" t="s">
         <v>192</v>
@@ -2671,67 +2628,67 @@
         <v>199</v>
       </c>
       <c r="I62" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63">
+        <v>2.475749772500532</v>
+      </c>
+      <c r="D63" t="s">
+        <v>158</v>
+      </c>
+      <c r="F63" t="s">
+        <v>192</v>
+      </c>
+      <c r="G63" t="s">
+        <v>195</v>
+      </c>
+      <c r="H63" t="s">
+        <v>199</v>
+      </c>
+      <c r="I63" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>35</v>
-      </c>
-      <c r="B63">
-        <v>22.78972343693621</v>
-      </c>
-      <c r="D63" t="s">
-        <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>191</v>
-      </c>
-      <c r="G63" t="s">
-        <v>195</v>
-      </c>
-      <c r="H63" t="s">
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64">
+        <v>6.20289701714</v>
+      </c>
+      <c r="D64" t="s">
+        <v>159</v>
+      </c>
+      <c r="F64" t="s">
+        <v>192</v>
+      </c>
+      <c r="G64" t="s">
+        <v>195</v>
+      </c>
+      <c r="H64" t="s">
         <v>202</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I64" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>14</v>
-      </c>
-      <c r="B64">
-        <v>11.531646543500001</v>
-      </c>
-      <c r="D64" t="s">
-        <v>102</v>
-      </c>
-      <c r="F64" t="s">
-        <v>185</v>
-      </c>
-      <c r="G64" t="s">
-        <v>195</v>
-      </c>
-      <c r="H64" t="s">
-        <v>197</v>
-      </c>
-      <c r="I64" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>6.1393784953299999</v>
+        <v>1.34183517078</v>
       </c>
       <c r="D65" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="F65" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G65" t="s">
         <v>195</v>
@@ -2743,15 +2700,15 @@
         <v>221</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.28072330065204287</v>
+        <v>1.11351659973</v>
       </c>
       <c r="D66" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F66" t="s">
         <v>192</v>
@@ -2760,73 +2717,67 @@
         <v>195</v>
       </c>
       <c r="H66" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I66" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>10.5721885661376</v>
+        <v>2.689687063009932</v>
       </c>
       <c r="D67" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="F67" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="G67" t="s">
         <v>195</v>
       </c>
       <c r="H67" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="I67" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.51700399124031526</v>
-      </c>
-      <c r="C68" t="s">
-        <v>95</v>
+        <v>5.574423981285</v>
       </c>
       <c r="D68" t="s">
-        <v>167</v>
-      </c>
-      <c r="E68" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="F68" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G68" t="s">
         <v>195</v>
       </c>
       <c r="H68" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I68" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>1.1135165997300001</v>
+        <v>19.0287184515658</v>
       </c>
       <c r="D69" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F69" t="s">
         <v>192</v>
@@ -2835,134 +2786,128 @@
         <v>195</v>
       </c>
       <c r="H69" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I69" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="B70">
-        <v>0.33000333380554819</v>
+        <v>2.3310987137657</v>
       </c>
       <c r="C70" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D70" t="s">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="E70" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F70" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="G70" t="s">
         <v>195</v>
       </c>
       <c r="H70" t="s">
+        <v>198</v>
+      </c>
+      <c r="I70" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71">
+        <v>11.90407993924279</v>
+      </c>
+      <c r="D71" t="s">
+        <v>166</v>
+      </c>
+      <c r="F71" t="s">
+        <v>192</v>
+      </c>
+      <c r="G71" t="s">
+        <v>195</v>
+      </c>
+      <c r="H71" t="s">
+        <v>199</v>
+      </c>
+      <c r="I71" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72">
+        <v>0.5170039912403153</v>
+      </c>
+      <c r="C72" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72" t="s">
+        <v>167</v>
+      </c>
+      <c r="E72" t="s">
+        <v>183</v>
+      </c>
+      <c r="F72" t="s">
+        <v>193</v>
+      </c>
+      <c r="G72" t="s">
+        <v>195</v>
+      </c>
+      <c r="H72" t="s">
         <v>200</v>
       </c>
-      <c r="I70" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>56</v>
-      </c>
-      <c r="B71">
-        <v>1.0398021956991279</v>
-      </c>
-      <c r="C71" t="s">
-        <v>89</v>
-      </c>
-      <c r="D71" t="s">
-        <v>144</v>
-      </c>
-      <c r="E71" t="s">
-        <v>177</v>
-      </c>
-      <c r="F71" t="s">
-        <v>191</v>
-      </c>
-      <c r="G71" t="s">
-        <v>195</v>
-      </c>
-      <c r="H71" t="s">
+      <c r="I72" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73">
+        <v>4.412887439581323</v>
+      </c>
+      <c r="D73" t="s">
+        <v>168</v>
+      </c>
+      <c r="F73" t="s">
+        <v>193</v>
+      </c>
+      <c r="G73" t="s">
+        <v>195</v>
+      </c>
+      <c r="H73" t="s">
         <v>200</v>
       </c>
-      <c r="I71" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>19</v>
-      </c>
-      <c r="B72">
-        <v>1.0581000927489479</v>
-      </c>
-      <c r="D72" t="s">
-        <v>107</v>
-      </c>
-      <c r="F72" t="s">
-        <v>186</v>
-      </c>
-      <c r="G72" t="s">
-        <v>195</v>
-      </c>
-      <c r="H72" t="s">
-        <v>201</v>
-      </c>
-      <c r="I72" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>22</v>
-      </c>
-      <c r="B73">
-        <v>7.4819984830510933</v>
-      </c>
-      <c r="D73" t="s">
-        <v>110</v>
-      </c>
-      <c r="F73" t="s">
-        <v>186</v>
-      </c>
-      <c r="G73" t="s">
-        <v>195</v>
-      </c>
-      <c r="H73" t="s">
-        <v>202</v>
-      </c>
       <c r="I73" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>1.4644855013698239</v>
-      </c>
-      <c r="C74" t="s">
-        <v>92</v>
+        <v>1.600590119251436</v>
       </c>
       <c r="D74" t="s">
-        <v>146</v>
-      </c>
-      <c r="E74" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="F74" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G74" t="s">
         <v>195</v>
@@ -2971,73 +2916,79 @@
         <v>196</v>
       </c>
       <c r="I74" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.55924126414497843</v>
+        <v>10.23564718904726</v>
       </c>
       <c r="C75" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D75" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="E75" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F75" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G75" t="s">
         <v>195</v>
       </c>
       <c r="H75" t="s">
+        <v>200</v>
+      </c>
+      <c r="I75" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76">
+        <v>1.973892455465505</v>
+      </c>
+      <c r="C76" t="s">
+        <v>96</v>
+      </c>
+      <c r="D76" t="s">
+        <v>171</v>
+      </c>
+      <c r="E76" t="s">
+        <v>184</v>
+      </c>
+      <c r="F76" t="s">
+        <v>193</v>
+      </c>
+      <c r="G76" t="s">
+        <v>195</v>
+      </c>
+      <c r="H76" t="s">
         <v>196</v>
       </c>
-      <c r="I75" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>23</v>
-      </c>
-      <c r="B76">
-        <v>4.7890140375600003</v>
-      </c>
-      <c r="D76" t="s">
-        <v>111</v>
-      </c>
-      <c r="F76" t="s">
-        <v>187</v>
-      </c>
-      <c r="G76" t="s">
-        <v>195</v>
-      </c>
-      <c r="H76" t="s">
-        <v>202</v>
-      </c>
       <c r="I76" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>7.2491471766700002</v>
+        <v>5.293594021862885</v>
       </c>
       <c r="D77" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="F77" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G77" t="s">
         <v>195</v>
@@ -3046,38 +2997,33 @@
         <v>199</v>
       </c>
       <c r="I77" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>1.8741904575772601</v>
+        <v>3.41867616080696</v>
       </c>
       <c r="D78" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="F78" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G78" t="s">
         <v>195</v>
       </c>
       <c r="H78" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I78" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I78" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I78">
-      <sortCondition ref="D1:D78"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>